--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1494.839847277353</v>
+        <v>1700.296297698326</v>
       </c>
       <c r="AB2" t="n">
-        <v>2045.305826724582</v>
+        <v>2326.420406289437</v>
       </c>
       <c r="AC2" t="n">
-        <v>1850.104709226744</v>
+        <v>2104.39010786472</v>
       </c>
       <c r="AD2" t="n">
-        <v>1494839.847277353</v>
+        <v>1700296.297698326</v>
       </c>
       <c r="AE2" t="n">
-        <v>2045305.826724582</v>
+        <v>2326420.406289437</v>
       </c>
       <c r="AF2" t="n">
         <v>4.025627763726734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.99166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1850104.709226744</v>
+        <v>2104390.10786472</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>566.6501473168476</v>
+        <v>674.2897158718987</v>
       </c>
       <c r="AB3" t="n">
-        <v>775.3157303990818</v>
+        <v>922.5929368187192</v>
       </c>
       <c r="AC3" t="n">
-        <v>701.3206852522546</v>
+        <v>834.5419617960591</v>
       </c>
       <c r="AD3" t="n">
-        <v>566650.1473168476</v>
+        <v>674289.7158718987</v>
       </c>
       <c r="AE3" t="n">
-        <v>775315.7303990817</v>
+        <v>922592.9368187191</v>
       </c>
       <c r="AF3" t="n">
         <v>7.50016603383204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.925</v>
       </c>
       <c r="AH3" t="n">
-        <v>701320.6852522546</v>
+        <v>834541.9617960592</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>446.4633546110654</v>
+        <v>544.2802364769873</v>
       </c>
       <c r="AB4" t="n">
-        <v>610.8708583519516</v>
+        <v>744.7082314971697</v>
       </c>
       <c r="AC4" t="n">
-        <v>552.5702009934751</v>
+        <v>673.6343230876465</v>
       </c>
       <c r="AD4" t="n">
-        <v>446463.3546110654</v>
+        <v>544280.2364769873</v>
       </c>
       <c r="AE4" t="n">
-        <v>610870.8583519516</v>
+        <v>744708.2314971697</v>
       </c>
       <c r="AF4" t="n">
         <v>8.76695616852026e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.90416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>552570.200993475</v>
+        <v>673634.3230876465</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>398.2019819428544</v>
+        <v>486.2645079572088</v>
       </c>
       <c r="AB5" t="n">
-        <v>544.8375191258107</v>
+        <v>665.3285522631053</v>
       </c>
       <c r="AC5" t="n">
-        <v>492.8389909847033</v>
+        <v>601.8305290296017</v>
       </c>
       <c r="AD5" t="n">
-        <v>398201.9819428545</v>
+        <v>486264.5079572088</v>
       </c>
       <c r="AE5" t="n">
-        <v>544837.5191258107</v>
+        <v>665328.5522631053</v>
       </c>
       <c r="AF5" t="n">
         <v>9.446495092985781e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.61666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>492838.9909847033</v>
+        <v>601830.5290296017</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>363.0913402975827</v>
+        <v>451.1197008931562</v>
       </c>
       <c r="AB6" t="n">
-        <v>496.7975902545614</v>
+        <v>617.2418767586081</v>
       </c>
       <c r="AC6" t="n">
-        <v>449.3839255004624</v>
+        <v>558.3331783451808</v>
       </c>
       <c r="AD6" t="n">
-        <v>363091.3402975827</v>
+        <v>451119.7008931562</v>
       </c>
       <c r="AE6" t="n">
-        <v>496797.5902545614</v>
+        <v>617241.8767586082</v>
       </c>
       <c r="AF6" t="n">
         <v>9.901530026885089e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.85</v>
       </c>
       <c r="AH6" t="n">
-        <v>449383.9255004624</v>
+        <v>558333.1783451808</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>350.3185593993907</v>
+        <v>428.6267295621776</v>
       </c>
       <c r="AB7" t="n">
-        <v>479.3213079343315</v>
+        <v>586.4660010637026</v>
       </c>
       <c r="AC7" t="n">
-        <v>433.5755550367589</v>
+        <v>530.494509032384</v>
       </c>
       <c r="AD7" t="n">
-        <v>350318.5593993907</v>
+        <v>428626.7295621776</v>
       </c>
       <c r="AE7" t="n">
-        <v>479321.3079343315</v>
+        <v>586466.0010637026</v>
       </c>
       <c r="AF7" t="n">
         <v>1.011812364194477e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.5125</v>
       </c>
       <c r="AH7" t="n">
-        <v>433575.5550367589</v>
+        <v>530494.509032384</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>351.1811554887609</v>
+        <v>429.4893256515476</v>
       </c>
       <c r="AB8" t="n">
-        <v>480.5015499588615</v>
+        <v>587.6462430882325</v>
       </c>
       <c r="AC8" t="n">
-        <v>434.6431564189479</v>
+        <v>531.562110414573</v>
       </c>
       <c r="AD8" t="n">
-        <v>351181.1554887609</v>
+        <v>429489.3256515476</v>
       </c>
       <c r="AE8" t="n">
-        <v>480501.5499588614</v>
+        <v>587646.2430882325</v>
       </c>
       <c r="AF8" t="n">
         <v>1.010682310550688e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.52916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>434643.1564189479</v>
+        <v>531562.110414573</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>962.1893609763247</v>
+        <v>1117.043981959274</v>
       </c>
       <c r="AB2" t="n">
-        <v>1316.509932486528</v>
+        <v>1528.38885661912</v>
       </c>
       <c r="AC2" t="n">
-        <v>1190.864072263309</v>
+        <v>1382.521569250623</v>
       </c>
       <c r="AD2" t="n">
-        <v>962189.3609763246</v>
+        <v>1117043.981959274</v>
       </c>
       <c r="AE2" t="n">
-        <v>1316509.932486528</v>
+        <v>1528388.85661912</v>
       </c>
       <c r="AF2" t="n">
         <v>5.59510244379456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.69583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1190864.072263309</v>
+        <v>1382521.569250623</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>469.7786986433497</v>
+        <v>556.8704866053993</v>
       </c>
       <c r="AB3" t="n">
-        <v>642.7719406573069</v>
+        <v>761.9347671654976</v>
       </c>
       <c r="AC3" t="n">
-        <v>581.4266887770575</v>
+        <v>689.2167823693838</v>
       </c>
       <c r="AD3" t="n">
-        <v>469778.6986433498</v>
+        <v>556870.4866053993</v>
       </c>
       <c r="AE3" t="n">
-        <v>642771.9406573069</v>
+        <v>761934.7671654976</v>
       </c>
       <c r="AF3" t="n">
         <v>8.995440945548161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.09166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>581426.6887770575</v>
+        <v>689216.7823693838</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>376.8963133823234</v>
+        <v>463.9870903145156</v>
       </c>
       <c r="AB4" t="n">
-        <v>515.6861634615328</v>
+        <v>634.8476066340694</v>
       </c>
       <c r="AC4" t="n">
-        <v>466.4697997908395</v>
+        <v>574.2586420711251</v>
       </c>
       <c r="AD4" t="n">
-        <v>376896.3133823234</v>
+        <v>463987.0903145156</v>
       </c>
       <c r="AE4" t="n">
-        <v>515686.1634615328</v>
+        <v>634847.6066340694</v>
       </c>
       <c r="AF4" t="n">
         <v>1.023192767345856e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.78333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>466469.7997908395</v>
+        <v>574258.6420711251</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>337.1562566932597</v>
+        <v>414.6006498941246</v>
       </c>
       <c r="AB5" t="n">
-        <v>461.3120646919899</v>
+        <v>567.2749000749093</v>
       </c>
       <c r="AC5" t="n">
-        <v>417.2850886933349</v>
+        <v>513.134979787082</v>
       </c>
       <c r="AD5" t="n">
-        <v>337156.2566932597</v>
+        <v>414600.6498941246</v>
       </c>
       <c r="AE5" t="n">
-        <v>461312.0646919899</v>
+        <v>567274.9000749093</v>
       </c>
       <c r="AF5" t="n">
         <v>1.087036698730296e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>417285.0886933349</v>
+        <v>513134.979787082</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>333.37641070104</v>
+        <v>410.8208039019049</v>
       </c>
       <c r="AB6" t="n">
-        <v>456.1403126503987</v>
+        <v>562.1031480333181</v>
       </c>
       <c r="AC6" t="n">
-        <v>412.6069214079935</v>
+        <v>508.4568125017406</v>
       </c>
       <c r="AD6" t="n">
-        <v>333376.4107010399</v>
+        <v>410820.8039019048</v>
       </c>
       <c r="AE6" t="n">
-        <v>456140.3126503987</v>
+        <v>562103.1480333181</v>
       </c>
       <c r="AF6" t="n">
         <v>1.095609673377142e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.675</v>
       </c>
       <c r="AH6" t="n">
-        <v>412606.9214079935</v>
+        <v>508456.8125017406</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>379.1200092720712</v>
+        <v>472.5733414428512</v>
       </c>
       <c r="AB2" t="n">
-        <v>518.7287222804247</v>
+        <v>646.5956942265236</v>
       </c>
       <c r="AC2" t="n">
-        <v>469.2219810663145</v>
+        <v>584.8855086723</v>
       </c>
       <c r="AD2" t="n">
-        <v>379120.0092720712</v>
+        <v>472573.3414428512</v>
       </c>
       <c r="AE2" t="n">
-        <v>518728.7222804247</v>
+        <v>646595.6942265236</v>
       </c>
       <c r="AF2" t="n">
         <v>1.246191321915916e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.23333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>469221.9810663145</v>
+        <v>584885.5086723</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.4440710425746</v>
+        <v>390.2547705714632</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.604494410695</v>
+        <v>533.9637939212519</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.41276722485</v>
+        <v>483.0030388522985</v>
       </c>
       <c r="AD3" t="n">
-        <v>315444.0710425746</v>
+        <v>390254.7705714632</v>
       </c>
       <c r="AE3" t="n">
-        <v>431604.494410695</v>
+        <v>533963.7939212519</v>
       </c>
       <c r="AF3" t="n">
         <v>1.407214750502503e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.03333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>390412.76722485</v>
+        <v>483003.0388522985</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>524.8056833115833</v>
+        <v>638.4608742080638</v>
       </c>
       <c r="AB2" t="n">
-        <v>718.0622886996147</v>
+        <v>873.5703349973235</v>
       </c>
       <c r="AC2" t="n">
-        <v>649.5314316728746</v>
+        <v>790.1980082888437</v>
       </c>
       <c r="AD2" t="n">
-        <v>524805.6833115832</v>
+        <v>638460.8742080638</v>
       </c>
       <c r="AE2" t="n">
-        <v>718062.2886996147</v>
+        <v>873570.3349973235</v>
       </c>
       <c r="AF2" t="n">
         <v>9.24958018874156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.44166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>649531.4316728746</v>
+        <v>790198.0082888437</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.0261706032588</v>
+        <v>411.335136340788</v>
       </c>
       <c r="AB3" t="n">
-        <v>446.0833898789073</v>
+        <v>562.8068803669438</v>
       </c>
       <c r="AC3" t="n">
-        <v>403.5098172308334</v>
+        <v>509.0933816091396</v>
       </c>
       <c r="AD3" t="n">
-        <v>326026.1706032588</v>
+        <v>411335.136340788</v>
       </c>
       <c r="AE3" t="n">
-        <v>446083.3898789072</v>
+        <v>562806.8803669438</v>
       </c>
       <c r="AF3" t="n">
         <v>1.248688343480655e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>403509.8172308335</v>
+        <v>509093.3816091396</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>318.1809139172668</v>
+        <v>393.9741551373935</v>
       </c>
       <c r="AB4" t="n">
-        <v>435.3491635728351</v>
+        <v>539.0528199720241</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.8000504178316</v>
+        <v>487.6063753992779</v>
       </c>
       <c r="AD4" t="n">
-        <v>318180.9139172668</v>
+        <v>393974.1551373935</v>
       </c>
       <c r="AE4" t="n">
-        <v>435349.1635728351</v>
+        <v>539052.8199720241</v>
       </c>
       <c r="AF4" t="n">
         <v>1.274893660615623e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.28333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>393800.0504178316</v>
+        <v>487606.3753992779</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.292151376462</v>
+        <v>401.4860202893521</v>
       </c>
       <c r="AB2" t="n">
-        <v>435.5013635719562</v>
+        <v>549.3308852730354</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.9377246626506</v>
+        <v>496.9035165733158</v>
       </c>
       <c r="AD2" t="n">
-        <v>318292.151376462</v>
+        <v>401486.0202893521</v>
       </c>
       <c r="AE2" t="n">
-        <v>435501.3635719562</v>
+        <v>549330.8852730354</v>
       </c>
       <c r="AF2" t="n">
         <v>1.512803477721882e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.15</v>
       </c>
       <c r="AH2" t="n">
-        <v>393937.7246626506</v>
+        <v>496903.5165733158</v>
       </c>
     </row>
     <row r="3">
@@ -5274,28 +5274,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>319.0897491466293</v>
+        <v>402.2836180595194</v>
       </c>
       <c r="AB3" t="n">
-        <v>436.5926720286295</v>
+        <v>550.4221937297085</v>
       </c>
       <c r="AC3" t="n">
-        <v>394.92488017188</v>
+        <v>497.8906720825452</v>
       </c>
       <c r="AD3" t="n">
-        <v>319089.7491466294</v>
+        <v>402283.6180595194</v>
       </c>
       <c r="AE3" t="n">
-        <v>436592.6720286295</v>
+        <v>550422.1937297086</v>
       </c>
       <c r="AF3" t="n">
         <v>1.516427511489672e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>394924.88017188</v>
+        <v>497890.6720825452</v>
       </c>
     </row>
   </sheetData>
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1069.933850702842</v>
+        <v>1234.849987937631</v>
       </c>
       <c r="AB2" t="n">
-        <v>1463.930696681761</v>
+        <v>1689.576231232889</v>
       </c>
       <c r="AC2" t="n">
-        <v>1324.215205630091</v>
+        <v>1528.325447059156</v>
       </c>
       <c r="AD2" t="n">
-        <v>1069933.850702842</v>
+        <v>1234849.987937631</v>
       </c>
       <c r="AE2" t="n">
-        <v>1463930.696681761</v>
+        <v>1689576.231232889</v>
       </c>
       <c r="AF2" t="n">
         <v>5.165122408696357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.44583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1324215.205630091</v>
+        <v>1528325.447059155</v>
       </c>
     </row>
     <row r="3">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>489.8549196271165</v>
+        <v>586.9442066153842</v>
       </c>
       <c r="AB3" t="n">
-        <v>670.2411119076568</v>
+        <v>803.0829576420479</v>
       </c>
       <c r="AC3" t="n">
-        <v>606.274240876498</v>
+        <v>726.4378472987001</v>
       </c>
       <c r="AD3" t="n">
-        <v>489854.9196271165</v>
+        <v>586944.2066153842</v>
       </c>
       <c r="AE3" t="n">
-        <v>670241.1119076568</v>
+        <v>803082.9576420479</v>
       </c>
       <c r="AF3" t="n">
         <v>8.585879774057087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>606274.2408764979</v>
+        <v>726437.8472987001</v>
       </c>
     </row>
     <row r="4">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.9650040353882</v>
+        <v>479.6032792370787</v>
       </c>
       <c r="AB4" t="n">
-        <v>549.9862519656334</v>
+        <v>656.2143652555526</v>
       </c>
       <c r="AC4" t="n">
-        <v>497.4963359885854</v>
+        <v>593.586187238208</v>
       </c>
       <c r="AD4" t="n">
-        <v>401965.0040353882</v>
+        <v>479603.2792370787</v>
       </c>
       <c r="AE4" t="n">
-        <v>549986.2519656334</v>
+        <v>656214.3652555526</v>
       </c>
       <c r="AF4" t="n">
         <v>9.81501963396801e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.075</v>
       </c>
       <c r="AH4" t="n">
-        <v>497496.3359885854</v>
+        <v>593586.187238208</v>
       </c>
     </row>
     <row r="5">
@@ -5889,19 +5889,19 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.7125731712163</v>
+        <v>437.0246006230955</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.4921708427175</v>
+        <v>597.956338737174</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.8255496254674</v>
+        <v>540.8882250050897</v>
       </c>
       <c r="AD5" t="n">
-        <v>349712.5731712162</v>
+        <v>437024.6006230955</v>
       </c>
       <c r="AE5" t="n">
-        <v>478492.1708427175</v>
+        <v>597956.3387371739</v>
       </c>
       <c r="AF5" t="n">
         <v>1.047383216359304e-05</v>
@@ -5910,7 +5910,7 @@
         <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>432825.5496254674</v>
+        <v>540888.2250050897</v>
       </c>
     </row>
     <row r="6">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>337.4885681951465</v>
+        <v>415.1599977857607</v>
       </c>
       <c r="AB6" t="n">
-        <v>461.7667479494203</v>
+        <v>568.0402245369332</v>
       </c>
       <c r="AC6" t="n">
-        <v>417.696377618828</v>
+        <v>513.8272627565898</v>
       </c>
       <c r="AD6" t="n">
-        <v>337488.5681951465</v>
+        <v>415159.9977857607</v>
       </c>
       <c r="AE6" t="n">
-        <v>461766.7479494203</v>
+        <v>568040.2245369332</v>
       </c>
       <c r="AF6" t="n">
         <v>1.072360174900033e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.62916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>417696.377618828</v>
+        <v>513827.2627565898</v>
       </c>
     </row>
     <row r="7">
@@ -6101,28 +6101,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>338.2783170224806</v>
+        <v>415.9497466130947</v>
       </c>
       <c r="AB7" t="n">
-        <v>462.847317136238</v>
+        <v>569.1207937237508</v>
       </c>
       <c r="AC7" t="n">
-        <v>418.6738187990442</v>
+        <v>514.804703936806</v>
       </c>
       <c r="AD7" t="n">
-        <v>338278.3170224805</v>
+        <v>415949.7466130947</v>
       </c>
       <c r="AE7" t="n">
-        <v>462847.317136238</v>
+        <v>569120.7937237509</v>
       </c>
       <c r="AF7" t="n">
         <v>1.072199292719416e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.62916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>418673.8187990442</v>
+        <v>514804.7039368061</v>
       </c>
     </row>
   </sheetData>
@@ -6398,28 +6398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.0138700096288</v>
+        <v>407.6863808888617</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.6983155471524</v>
+        <v>557.8144921858884</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.2569324493373</v>
+        <v>504.5774599492234</v>
       </c>
       <c r="AD2" t="n">
-        <v>325013.8700096288</v>
+        <v>407686.3808888617</v>
       </c>
       <c r="AE2" t="n">
-        <v>444698.3155471524</v>
+        <v>557814.4921858885</v>
       </c>
       <c r="AF2" t="n">
         <v>1.576699282163748e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.05416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>402256.9324493373</v>
+        <v>504577.4599492234</v>
       </c>
     </row>
   </sheetData>
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>713.0606758061124</v>
+        <v>837.6431251851176</v>
       </c>
       <c r="AB2" t="n">
-        <v>975.6410746547447</v>
+        <v>1146.100278084864</v>
       </c>
       <c r="AC2" t="n">
-        <v>882.5272598105436</v>
+        <v>1036.718076106287</v>
       </c>
       <c r="AD2" t="n">
-        <v>713060.6758061124</v>
+        <v>837643.1251851176</v>
       </c>
       <c r="AE2" t="n">
-        <v>975641.0746547447</v>
+        <v>1146100.278084864</v>
       </c>
       <c r="AF2" t="n">
         <v>7.149652559512522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.11666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>882527.2598105436</v>
+        <v>1036718.076106287</v>
       </c>
     </row>
     <row r="3">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>391.1696832439305</v>
+        <v>477.4656772962679</v>
       </c>
       <c r="AB3" t="n">
-        <v>535.2156178028201</v>
+        <v>653.2896039757934</v>
       </c>
       <c r="AC3" t="n">
-        <v>484.1353904195557</v>
+        <v>590.9405610700607</v>
       </c>
       <c r="AD3" t="n">
-        <v>391169.6832439305</v>
+        <v>477465.6772962679</v>
       </c>
       <c r="AE3" t="n">
-        <v>535215.6178028202</v>
+        <v>653289.6039757933</v>
       </c>
       <c r="AF3" t="n">
         <v>1.048582842944365e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.80833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>484135.3904195557</v>
+        <v>590940.5610700607</v>
       </c>
     </row>
     <row r="4">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>334.4127799802234</v>
+        <v>411.0530104412634</v>
       </c>
       <c r="AB4" t="n">
-        <v>457.5583188195632</v>
+        <v>562.4208632646979</v>
       </c>
       <c r="AC4" t="n">
-        <v>413.8895950585571</v>
+        <v>508.7442054373536</v>
       </c>
       <c r="AD4" t="n">
-        <v>334412.7799802234</v>
+        <v>411053.0104412634</v>
       </c>
       <c r="AE4" t="n">
-        <v>457558.3188195633</v>
+        <v>562420.863264698</v>
       </c>
       <c r="AF4" t="n">
         <v>1.164300281098075e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.0375</v>
       </c>
       <c r="AH4" t="n">
-        <v>413889.5950585571</v>
+        <v>508744.2054373536</v>
       </c>
     </row>
     <row r="5">
@@ -7013,28 +7013,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.2056563144367</v>
+        <v>407.4333195292126</v>
       </c>
       <c r="AB5" t="n">
-        <v>439.4877495628596</v>
+        <v>557.4682424693373</v>
       </c>
       <c r="AC5" t="n">
-        <v>397.5436555695101</v>
+        <v>504.2642558196551</v>
       </c>
       <c r="AD5" t="n">
-        <v>321205.6563144367</v>
+        <v>407433.3195292125</v>
       </c>
       <c r="AE5" t="n">
-        <v>439487.7495628595</v>
+        <v>557468.2424693373</v>
       </c>
       <c r="AF5" t="n">
         <v>1.173980748426193e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.90416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>397543.6555695101</v>
+        <v>504264.2558196551</v>
       </c>
     </row>
   </sheetData>
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>873.126149840283</v>
+        <v>1008.208261519379</v>
       </c>
       <c r="AB2" t="n">
-        <v>1194.649717818629</v>
+        <v>1379.475022420142</v>
       </c>
       <c r="AC2" t="n">
-        <v>1080.634025451428</v>
+        <v>1247.819862385717</v>
       </c>
       <c r="AD2" t="n">
-        <v>873126.149840283</v>
+        <v>1008208.261519379</v>
       </c>
       <c r="AE2" t="n">
-        <v>1194649.717818629</v>
+        <v>1379475.022420142</v>
       </c>
       <c r="AF2" t="n">
         <v>6.070944454073624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.03333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1080634.025451428</v>
+        <v>1247819.862385717</v>
       </c>
     </row>
     <row r="3">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>440.4865072518629</v>
+        <v>536.9632461673815</v>
       </c>
       <c r="AB3" t="n">
-        <v>602.693072115195</v>
+        <v>734.696802552737</v>
       </c>
       <c r="AC3" t="n">
-        <v>545.1728911975594</v>
+        <v>664.5783708705418</v>
       </c>
       <c r="AD3" t="n">
-        <v>440486.5072518629</v>
+        <v>536963.2461673815</v>
       </c>
       <c r="AE3" t="n">
-        <v>602693.072115195</v>
+        <v>734696.8025527371</v>
       </c>
       <c r="AF3" t="n">
         <v>9.434478657567414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.68333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>545172.8911975593</v>
+        <v>664578.3708705418</v>
       </c>
     </row>
     <row r="4">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>362.3071109794399</v>
+        <v>449.1327594615286</v>
       </c>
       <c r="AB4" t="n">
-        <v>495.7245731037227</v>
+        <v>614.523255834186</v>
       </c>
       <c r="AC4" t="n">
-        <v>448.4133156005108</v>
+        <v>555.8740187861771</v>
       </c>
       <c r="AD4" t="n">
-        <v>362307.1109794399</v>
+        <v>449132.7594615286</v>
       </c>
       <c r="AE4" t="n">
-        <v>495724.5731037227</v>
+        <v>614523.255834186</v>
       </c>
       <c r="AF4" t="n">
         <v>1.067100368294942e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.51666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>448413.3156005108</v>
+        <v>555874.018786177</v>
       </c>
     </row>
     <row r="5">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>329.0521981870336</v>
+        <v>406.2609216544732</v>
       </c>
       <c r="AB5" t="n">
-        <v>450.2237343179431</v>
+        <v>555.864115974575</v>
       </c>
       <c r="AC5" t="n">
-        <v>407.2550130076175</v>
+        <v>502.8132249061475</v>
       </c>
       <c r="AD5" t="n">
-        <v>329052.1981870336</v>
+        <v>406260.9216544732</v>
       </c>
       <c r="AE5" t="n">
-        <v>450223.734317943</v>
+        <v>555864.115974575</v>
       </c>
       <c r="AF5" t="n">
         <v>1.119725655040588e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.74166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>407255.0130076176</v>
+        <v>502813.2249061475</v>
       </c>
     </row>
     <row r="6">
@@ -7734,28 +7734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>329.7490690309941</v>
+        <v>406.9577924984337</v>
       </c>
       <c r="AB6" t="n">
-        <v>451.1772237504217</v>
+        <v>556.8176054070536</v>
       </c>
       <c r="AC6" t="n">
-        <v>408.1175027468912</v>
+        <v>503.6757146454212</v>
       </c>
       <c r="AD6" t="n">
-        <v>329749.0690309941</v>
+        <v>406957.7924984337</v>
       </c>
       <c r="AE6" t="n">
-        <v>451177.2237504217</v>
+        <v>556817.6054070536</v>
       </c>
       <c r="AF6" t="n">
         <v>1.119894868181249e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.7375</v>
       </c>
       <c r="AH6" t="n">
-        <v>408117.5027468912</v>
+        <v>503675.7146454212</v>
       </c>
     </row>
   </sheetData>
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1333.472559250953</v>
+        <v>1518.932258390824</v>
       </c>
       <c r="AB2" t="n">
-        <v>1824.51598422455</v>
+        <v>2078.270126492198</v>
       </c>
       <c r="AC2" t="n">
-        <v>1650.386739414425</v>
+        <v>1879.922942490224</v>
       </c>
       <c r="AD2" t="n">
-        <v>1333472.559250953</v>
+        <v>1518932.258390825</v>
       </c>
       <c r="AE2" t="n">
-        <v>1824515.984224549</v>
+        <v>2078270.126492198</v>
       </c>
       <c r="AF2" t="n">
         <v>4.38013115006719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.58333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1650386.739414425</v>
+        <v>1879922.942490224</v>
       </c>
     </row>
     <row r="3">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>543.7353331040616</v>
+        <v>641.2963630640693</v>
       </c>
       <c r="AB3" t="n">
-        <v>743.9626706628928</v>
+        <v>877.4499759430496</v>
       </c>
       <c r="AC3" t="n">
-        <v>672.9599175329919</v>
+        <v>793.7073817478199</v>
       </c>
       <c r="AD3" t="n">
-        <v>543735.3331040617</v>
+        <v>641296.3630640693</v>
       </c>
       <c r="AE3" t="n">
-        <v>743962.6706628929</v>
+        <v>877449.9759430496</v>
       </c>
       <c r="AF3" t="n">
         <v>7.834243352868199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.45416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>672959.9175329919</v>
+        <v>793707.3817478199</v>
       </c>
     </row>
     <row r="4">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>432.6598502028492</v>
+        <v>520.5253649937898</v>
       </c>
       <c r="AB4" t="n">
-        <v>591.9842946529944</v>
+        <v>712.2057683428928</v>
       </c>
       <c r="AC4" t="n">
-        <v>535.4861444264877</v>
+        <v>644.2338493993202</v>
       </c>
       <c r="AD4" t="n">
-        <v>432659.8502028491</v>
+        <v>520525.3649937898</v>
       </c>
       <c r="AE4" t="n">
-        <v>591984.2946529945</v>
+        <v>712205.7683428929</v>
       </c>
       <c r="AF4" t="n">
         <v>9.073678181372726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.65833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>535486.1444264877</v>
+        <v>644233.8493993202</v>
       </c>
     </row>
     <row r="5">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.2141024298115</v>
+        <v>463.2494624362766</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.0669293912605</v>
+        <v>633.8383516292174</v>
       </c>
       <c r="AC5" t="n">
-        <v>476.7644013932393</v>
+        <v>573.3457089474381</v>
       </c>
       <c r="AD5" t="n">
-        <v>385214.1024298115</v>
+        <v>463249.4624362767</v>
       </c>
       <c r="AE5" t="n">
-        <v>527066.9293912605</v>
+        <v>633838.3516292174</v>
       </c>
       <c r="AF5" t="n">
         <v>9.769730629276292e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>476764.4013932393</v>
+        <v>573345.708947438</v>
       </c>
     </row>
     <row r="6">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>351.8472306106831</v>
+        <v>429.9499104248526</v>
       </c>
       <c r="AB6" t="n">
-        <v>481.4129033258359</v>
+        <v>588.2764354946344</v>
       </c>
       <c r="AC6" t="n">
-        <v>435.4675314996708</v>
+        <v>532.1321581421886</v>
       </c>
       <c r="AD6" t="n">
-        <v>351847.2306106832</v>
+        <v>429949.9104248526</v>
       </c>
       <c r="AE6" t="n">
-        <v>481412.9033258359</v>
+        <v>588276.4354946343</v>
       </c>
       <c r="AF6" t="n">
         <v>1.020235991319425e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.70416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>435467.5314996708</v>
+        <v>532132.1581421886</v>
       </c>
     </row>
     <row r="7">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>345.9676666614652</v>
+        <v>424.0703464756348</v>
       </c>
       <c r="AB7" t="n">
-        <v>473.3682245424612</v>
+        <v>580.2317567112597</v>
       </c>
       <c r="AC7" t="n">
-        <v>428.1906255686038</v>
+        <v>524.8552522111216</v>
       </c>
       <c r="AD7" t="n">
-        <v>345967.6666614652</v>
+        <v>424070.3464756348</v>
       </c>
       <c r="AE7" t="n">
-        <v>473368.2245424612</v>
+        <v>580231.7567112597</v>
       </c>
       <c r="AF7" t="n">
         <v>1.031157477242332e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.5375</v>
       </c>
       <c r="AH7" t="n">
-        <v>428190.6255686038</v>
+        <v>524855.2522111216</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>580.8959486789789</v>
+        <v>695.1328525494517</v>
       </c>
       <c r="AB2" t="n">
-        <v>794.80746430315</v>
+        <v>951.1114359552399</v>
       </c>
       <c r="AC2" t="n">
-        <v>718.9521554293391</v>
+        <v>860.3386954009554</v>
       </c>
       <c r="AD2" t="n">
-        <v>580895.948678979</v>
+        <v>695132.8525494518</v>
       </c>
       <c r="AE2" t="n">
-        <v>794807.4643031501</v>
+        <v>951111.4359552399</v>
       </c>
       <c r="AF2" t="n">
         <v>8.450082643229913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.64166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>718952.155429339</v>
+        <v>860338.6954009554</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>353.952034395661</v>
+        <v>430.0768159203859</v>
       </c>
       <c r="AB3" t="n">
-        <v>484.2927887218321</v>
+        <v>588.4500731922983</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.0725646754176</v>
+        <v>532.2892241016895</v>
       </c>
       <c r="AD3" t="n">
-        <v>353952.034395661</v>
+        <v>430076.8159203859</v>
       </c>
       <c r="AE3" t="n">
-        <v>484292.7887218321</v>
+        <v>588450.0731922983</v>
       </c>
       <c r="AF3" t="n">
         <v>1.174698598701138e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.00416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>438072.5646754176</v>
+        <v>532289.2241016894</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>321.9081215302258</v>
+        <v>397.9987376361699</v>
       </c>
       <c r="AB4" t="n">
-        <v>440.4488934616804</v>
+        <v>544.5594312988987</v>
       </c>
       <c r="AC4" t="n">
-        <v>398.4130692436013</v>
+        <v>492.5874434696932</v>
       </c>
       <c r="AD4" t="n">
-        <v>321908.1215302258</v>
+        <v>397998.7376361699</v>
       </c>
       <c r="AE4" t="n">
-        <v>440448.8934616804</v>
+        <v>544559.4312988988</v>
       </c>
       <c r="AF4" t="n">
         <v>1.239898374003491e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.10833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>398413.0692436013</v>
+        <v>492587.4434696932</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.7488796072905</v>
+        <v>518.6908934860543</v>
       </c>
       <c r="AB2" t="n">
-        <v>581.1601556767603</v>
+        <v>709.6957634948378</v>
       </c>
       <c r="AC2" t="n">
-        <v>525.6950460823708</v>
+        <v>641.9633958911497</v>
       </c>
       <c r="AD2" t="n">
-        <v>424748.8796072905</v>
+        <v>518690.8934860543</v>
       </c>
       <c r="AE2" t="n">
-        <v>581160.1556767602</v>
+        <v>709695.7634948378</v>
       </c>
       <c r="AF2" t="n">
         <v>1.121589458283865e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>525695.0460823708</v>
+        <v>641963.3958911498</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.5746939987625</v>
+        <v>394.148928897803</v>
       </c>
       <c r="AB3" t="n">
-        <v>423.5737538007112</v>
+        <v>539.2919531414907</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.1484692274678</v>
+        <v>487.822686034676</v>
       </c>
       <c r="AD3" t="n">
-        <v>309574.6939987625</v>
+        <v>394148.9288978031</v>
       </c>
       <c r="AE3" t="n">
-        <v>423573.7538007112</v>
+        <v>539291.9531414907</v>
       </c>
       <c r="AF3" t="n">
         <v>1.359426386910475e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.70833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>383148.4692274678</v>
+        <v>487822.686034676</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>335.351392334598</v>
+        <v>419.0377792857643</v>
       </c>
       <c r="AB2" t="n">
-        <v>458.8425696514732</v>
+        <v>573.3459762608841</v>
       </c>
       <c r="AC2" t="n">
-        <v>415.0512787935269</v>
+        <v>518.6266409826763</v>
       </c>
       <c r="AD2" t="n">
-        <v>335351.392334598</v>
+        <v>419037.7792857643</v>
       </c>
       <c r="AE2" t="n">
-        <v>458842.5696514732</v>
+        <v>573345.9762608841</v>
       </c>
       <c r="AF2" t="n">
         <v>1.398500145773149e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.24166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>415051.2787935269</v>
+        <v>518626.6409826763</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>312.3422464659882</v>
+        <v>395.9944679983737</v>
       </c>
       <c r="AB3" t="n">
-        <v>427.3604411821671</v>
+        <v>541.8171011583302</v>
       </c>
       <c r="AC3" t="n">
-        <v>386.5737604798867</v>
+        <v>490.106837468856</v>
       </c>
       <c r="AD3" t="n">
-        <v>312342.2464659882</v>
+        <v>395994.4679983737</v>
       </c>
       <c r="AE3" t="n">
-        <v>427360.4411821671</v>
+        <v>541817.1011583302</v>
       </c>
       <c r="AF3" t="n">
         <v>1.458985093419089e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.48333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>386573.7604798867</v>
+        <v>490106.837468856</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.5331076249954</v>
+        <v>434.7938121802931</v>
       </c>
       <c r="AB2" t="n">
-        <v>457.7229564116214</v>
+        <v>594.9040755742914</v>
       </c>
       <c r="AC2" t="n">
-        <v>414.0385198698996</v>
+        <v>538.1272655545944</v>
       </c>
       <c r="AD2" t="n">
-        <v>334533.1076249954</v>
+        <v>434793.8121802931</v>
       </c>
       <c r="AE2" t="n">
-        <v>457722.9564116214</v>
+        <v>594904.0755742914</v>
       </c>
       <c r="AF2" t="n">
         <v>1.629167718198129e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>414038.5198698996</v>
+        <v>538127.2655545943</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>784.2687581847268</v>
+        <v>918.9548508757674</v>
       </c>
       <c r="AB2" t="n">
-        <v>1073.071114444045</v>
+        <v>1257.354568394976</v>
       </c>
       <c r="AC2" t="n">
-        <v>970.6587133462727</v>
+        <v>1137.354413095579</v>
       </c>
       <c r="AD2" t="n">
-        <v>784268.7581847268</v>
+        <v>918954.8508757674</v>
       </c>
       <c r="AE2" t="n">
-        <v>1073071.114444045</v>
+        <v>1257354.568394976</v>
       </c>
       <c r="AF2" t="n">
         <v>6.58546090459529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>970658.7133462727</v>
+        <v>1137354.413095579</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>420.3597535880419</v>
+        <v>506.8763505102923</v>
       </c>
       <c r="AB3" t="n">
-        <v>575.1547598226504</v>
+        <v>693.5305845745502</v>
       </c>
       <c r="AC3" t="n">
-        <v>520.2627967799511</v>
+        <v>627.3409989590433</v>
       </c>
       <c r="AD3" t="n">
-        <v>420359.7535880419</v>
+        <v>506876.3505102923</v>
       </c>
       <c r="AE3" t="n">
-        <v>575154.7598226503</v>
+        <v>693530.5845745502</v>
       </c>
       <c r="AF3" t="n">
         <v>9.93691244157724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.2375</v>
       </c>
       <c r="AH3" t="n">
-        <v>520262.7967799512</v>
+        <v>627340.9989590433</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.2639807344724</v>
+        <v>424.1601424645055</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.1418986464903</v>
+        <v>580.3546195447522</v>
       </c>
       <c r="AC4" t="n">
-        <v>429.7950227055116</v>
+        <v>524.9663891882245</v>
       </c>
       <c r="AD4" t="n">
-        <v>347263.9807344724</v>
+        <v>424160.1424645055</v>
       </c>
       <c r="AE4" t="n">
-        <v>475141.8986464903</v>
+        <v>580354.6195447522</v>
       </c>
       <c r="AF4" t="n">
         <v>1.115918094500609e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.24166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>429795.0227055116</v>
+        <v>524966.3891882246</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>324.818697413733</v>
+        <v>401.7821789514707</v>
       </c>
       <c r="AB5" t="n">
-        <v>444.4312717910407</v>
+        <v>549.7361026201439</v>
       </c>
       <c r="AC5" t="n">
-        <v>402.0153749745105</v>
+        <v>497.2700605455425</v>
       </c>
       <c r="AD5" t="n">
-        <v>324818.6974137331</v>
+        <v>401782.1789514706</v>
       </c>
       <c r="AE5" t="n">
-        <v>444431.2717910407</v>
+        <v>549736.1026201439</v>
       </c>
       <c r="AF5" t="n">
         <v>1.146105081738318e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>402015.3749745105</v>
+        <v>497270.0605455425</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1193.888850331634</v>
+        <v>1369.007117959647</v>
       </c>
       <c r="AB2" t="n">
-        <v>1633.53139568251</v>
+        <v>1873.135935123874</v>
       </c>
       <c r="AC2" t="n">
-        <v>1477.629451954284</v>
+        <v>1694.366470438447</v>
       </c>
       <c r="AD2" t="n">
-        <v>1193888.850331634</v>
+        <v>1369007.117959647</v>
       </c>
       <c r="AE2" t="n">
-        <v>1633531.39568251</v>
+        <v>1873135.935123874</v>
       </c>
       <c r="AF2" t="n">
         <v>4.756942988657904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.425</v>
       </c>
       <c r="AH2" t="n">
-        <v>1477629.451954284</v>
+        <v>1694366.470438447</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>511.8043951152334</v>
+        <v>618.8356810002308</v>
       </c>
       <c r="AB3" t="n">
-        <v>700.2733526130145</v>
+        <v>846.7182798479472</v>
       </c>
       <c r="AC3" t="n">
-        <v>633.4402466794509</v>
+        <v>765.908675595828</v>
       </c>
       <c r="AD3" t="n">
-        <v>511804.3951152334</v>
+        <v>618835.6810002308</v>
       </c>
       <c r="AE3" t="n">
-        <v>700273.3526130145</v>
+        <v>846718.2798479472</v>
       </c>
       <c r="AF3" t="n">
         <v>8.191311974437691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.99166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>633440.2466794509</v>
+        <v>765908.675595828</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>416.8091009259316</v>
+        <v>504.3345748360857</v>
       </c>
       <c r="AB4" t="n">
-        <v>570.2966002066108</v>
+        <v>690.0528149618721</v>
       </c>
       <c r="AC4" t="n">
-        <v>515.8682930991966</v>
+        <v>624.1951427971187</v>
       </c>
       <c r="AD4" t="n">
-        <v>416809.1009259316</v>
+        <v>504334.5748360857</v>
       </c>
       <c r="AE4" t="n">
-        <v>570296.6002066109</v>
+        <v>690052.8149618721</v>
       </c>
       <c r="AF4" t="n">
         <v>9.441959961706092e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.34583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>515868.2930991967</v>
+        <v>624195.1427971188</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.0367664145227</v>
+        <v>449.8600769504976</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.0371169121063</v>
+        <v>615.5184037095762</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.4553289120948</v>
+        <v>556.7741911450389</v>
       </c>
       <c r="AD5" t="n">
-        <v>372036.7664145227</v>
+        <v>449860.0769504976</v>
       </c>
       <c r="AE5" t="n">
-        <v>509037.1169121063</v>
+        <v>615518.4037095762</v>
       </c>
       <c r="AF5" t="n">
         <v>1.011641374742343e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>460455.3289120948</v>
+        <v>556774.1911450389</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>343.170780891825</v>
+        <v>421.0614112355044</v>
       </c>
       <c r="AB6" t="n">
-        <v>469.5414020425478</v>
+        <v>576.1147987708592</v>
       </c>
       <c r="AC6" t="n">
-        <v>424.729029637103</v>
+        <v>521.1312109583662</v>
       </c>
       <c r="AD6" t="n">
-        <v>343170.780891825</v>
+        <v>421061.4112355044</v>
       </c>
       <c r="AE6" t="n">
-        <v>469541.4020425478</v>
+        <v>576114.7987708593</v>
       </c>
       <c r="AF6" t="n">
         <v>1.047997420883867e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>424729.029637103</v>
+        <v>521131.2109583662</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>342.3832036670728</v>
+        <v>420.2738340107521</v>
       </c>
       <c r="AB7" t="n">
-        <v>468.4638041381868</v>
+        <v>575.0372008664983</v>
       </c>
       <c r="AC7" t="n">
-        <v>423.7542761643161</v>
+        <v>520.1564574855793</v>
       </c>
       <c r="AD7" t="n">
-        <v>342383.2036670728</v>
+        <v>420273.8340107522</v>
       </c>
       <c r="AE7" t="n">
-        <v>468463.8041381869</v>
+        <v>575037.2008664983</v>
       </c>
       <c r="AF7" t="n">
         <v>1.050198435569191e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.59166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>423754.2761643161</v>
+        <v>520156.4574855793</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>377.4541899869795</v>
+        <v>485.7429024721208</v>
       </c>
       <c r="AB2" t="n">
-        <v>516.4494748438019</v>
+        <v>664.6148686267979</v>
       </c>
       <c r="AC2" t="n">
-        <v>467.1602618060991</v>
+        <v>601.1849583578822</v>
       </c>
       <c r="AD2" t="n">
-        <v>377454.1899869795</v>
+        <v>485742.9024721208</v>
       </c>
       <c r="AE2" t="n">
-        <v>516449.4748438019</v>
+        <v>664614.8686267979</v>
       </c>
       <c r="AF2" t="n">
         <v>1.63696812494642e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>467160.2618060992</v>
+        <v>601184.9583578822</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>473.181141487447</v>
+        <v>576.9538427266216</v>
       </c>
       <c r="AB2" t="n">
-        <v>647.427313061785</v>
+        <v>789.4137010256943</v>
       </c>
       <c r="AC2" t="n">
-        <v>585.6377589731084</v>
+        <v>714.0731653488891</v>
       </c>
       <c r="AD2" t="n">
-        <v>473181.141487447</v>
+        <v>576953.8427266215</v>
       </c>
       <c r="AE2" t="n">
-        <v>647427.313061785</v>
+        <v>789413.7010256943</v>
       </c>
       <c r="AF2" t="n">
         <v>1.015746519880685e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.325</v>
       </c>
       <c r="AH2" t="n">
-        <v>585637.7589731084</v>
+        <v>714073.1653488891</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>313.5399143248489</v>
+        <v>389.0174574012607</v>
       </c>
       <c r="AB3" t="n">
-        <v>428.9991431840372</v>
+        <v>532.2708474553764</v>
       </c>
       <c r="AC3" t="n">
-        <v>388.0560670626309</v>
+        <v>481.4716648210608</v>
       </c>
       <c r="AD3" t="n">
-        <v>313539.9143248489</v>
+        <v>389017.4574012607</v>
       </c>
       <c r="AE3" t="n">
-        <v>428999.1431840372</v>
+        <v>532270.8474553764</v>
       </c>
       <c r="AF3" t="n">
         <v>1.315012267831202e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.47083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>388056.0670626309</v>
+        <v>481471.6648210608</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.1637533693224</v>
+        <v>389.6412964457342</v>
       </c>
       <c r="AB4" t="n">
-        <v>429.852707286522</v>
+        <v>533.1244115578612</v>
       </c>
       <c r="AC4" t="n">
-        <v>388.8281682051594</v>
+        <v>482.2437659635892</v>
       </c>
       <c r="AD4" t="n">
-        <v>314163.7533693224</v>
+        <v>389641.2964457342</v>
       </c>
       <c r="AE4" t="n">
-        <v>429852.707286522</v>
+        <v>533124.4115578613</v>
       </c>
       <c r="AF4" t="n">
         <v>1.316051926500476e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.45833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>388828.1682051594</v>
+        <v>482243.7659635892</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>639.4810920201005</v>
+        <v>763.6612499399081</v>
       </c>
       <c r="AB2" t="n">
-        <v>874.9662420165852</v>
+        <v>1044.875012524384</v>
       </c>
       <c r="AC2" t="n">
-        <v>791.4606919013548</v>
+        <v>945.1536078203468</v>
       </c>
       <c r="AD2" t="n">
-        <v>639481.0920201004</v>
+        <v>763661.249939908</v>
       </c>
       <c r="AE2" t="n">
-        <v>874966.2420165852</v>
+        <v>1044875.012524384</v>
       </c>
       <c r="AF2" t="n">
         <v>7.764741873463959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>791460.6919013548</v>
+        <v>945153.6078203468</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>373.3743005630759</v>
+        <v>459.2673468786904</v>
       </c>
       <c r="AB3" t="n">
-        <v>510.867190141999</v>
+        <v>628.3898454447883</v>
       </c>
       <c r="AC3" t="n">
-        <v>462.1107425214504</v>
+        <v>568.4172005462244</v>
       </c>
       <c r="AD3" t="n">
-        <v>373374.3005630759</v>
+        <v>459267.3468786904</v>
       </c>
       <c r="AE3" t="n">
-        <v>510867.190141999</v>
+        <v>628389.8454447883</v>
       </c>
       <c r="AF3" t="n">
         <v>1.105810332977967e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.44166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>462110.7425214504</v>
+        <v>568417.2005462244</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.0892139910646</v>
+        <v>402.4614777763376</v>
       </c>
       <c r="AB4" t="n">
-        <v>446.169648623381</v>
+        <v>550.6655492408761</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.5878435617996</v>
+        <v>498.1108020852786</v>
       </c>
       <c r="AD4" t="n">
-        <v>326089.2139910646</v>
+        <v>402461.4777763376</v>
       </c>
       <c r="AE4" t="n">
-        <v>446169.648623381</v>
+        <v>550665.5492408761</v>
       </c>
       <c r="AF4" t="n">
         <v>1.20481947078625e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.00833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>403587.8435617996</v>
+        <v>498110.8020852786</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>316.7385786581613</v>
+        <v>402.6647793626994</v>
       </c>
       <c r="AB5" t="n">
-        <v>433.3756968399862</v>
+        <v>550.9437154403694</v>
       </c>
       <c r="AC5" t="n">
-        <v>392.0149285801879</v>
+        <v>498.3624204931008</v>
       </c>
       <c r="AD5" t="n">
-        <v>316738.5786581613</v>
+        <v>402664.7793626994</v>
       </c>
       <c r="AE5" t="n">
-        <v>433375.6968399863</v>
+        <v>550943.7154403693</v>
       </c>
       <c r="AF5" t="n">
         <v>1.206763549228488e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.98333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>392014.9285801878</v>
+        <v>498362.4204931008</v>
       </c>
     </row>
   </sheetData>
